--- a/data/trans_camb/P53_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 14,76</t>
+          <t>-16,82; 14,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 14,07</t>
+          <t>-11,5; 22,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 13,39</t>
+          <t>-9,52; 20,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 7,17</t>
+          <t>-28,95; 1,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 11,39</t>
+          <t>-11,86; 15,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,97</t>
+          <t>-7,28; 20,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 6,6</t>
+          <t>-6,12; 18,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 9,74</t>
+          <t>-15,29; 11,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 9,0</t>
+          <t>-9,47; 12,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 16,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 15,33</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; 4,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-35,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,88%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 40,63</t>
+          <t>-36,59; 46,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 39,42</t>
+          <t>-24,58; 76,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 35,52</t>
+          <t>-20,62; 73,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 15,61</t>
+          <t>-63,88; 4,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 24,38</t>
+          <t>-22,47; 40,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 17,29</t>
+          <t>-13,87; 54,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 15,27</t>
+          <t>-11,14; 49,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 22,61</t>
+          <t>-29,46; 30,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 20,96</t>
+          <t>-20,23; 33,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 47,48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 42,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,89; 12,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 7,04</t>
+          <t>-9,48; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 9,16</t>
+          <t>-6,41; 13,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 12,93</t>
+          <t>-4,24; 14,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 3,26</t>
+          <t>-13,86; 5,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1,99</t>
+          <t>-9,32; 6,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 1,84</t>
+          <t>-8,38; 7,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,52</t>
+          <t>-6,85; 8,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 3,67</t>
+          <t>-17,13; -2,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 4,92</t>
+          <t>-6,01; 6,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 7,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 8,98</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; -0,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>-19,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-27,75%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 39,83</t>
+          <t>-38,92; 72,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 49,24</t>
+          <t>-26,12; 88,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 69,81</t>
+          <t>-20,08; 100,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 10,39</t>
+          <t>-54,2; 44,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 6,56</t>
+          <t>-27,29; 27,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 5,77</t>
+          <t>-25,31; 31,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 13,94</t>
+          <t>-20,92; 34,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 14,47</t>
+          <t>-50,78; -6,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 19,47</t>
+          <t>-21,67; 30,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 38,41</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 42,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-46,28; -3,32</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,09</t>
+          <t>-2,13; 12,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,53</t>
+          <t>-5,98; 8,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 7,7</t>
+          <t>-4,51; 8,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,12</t>
+          <t>-8,52; 1,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,27</t>
+          <t>-2,31; 6,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 3,27</t>
+          <t>-1,62; 7,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,41</t>
+          <t>0,35; 9,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,07</t>
+          <t>-5,58; 2,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,4</t>
+          <t>-0,44; 7,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 5,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 7,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 1,08</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-48,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,99%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>105,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>71,05%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40,85%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-34,14%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 172,61</t>
+          <t>-40,92; 466,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 121,12</t>
+          <t>-73,01; 271,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 164,34</t>
+          <t>-60,86; 294,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 42,87</t>
+          <t>-91,55; 136,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 27,66</t>
+          <t>-36,21; 266,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,85; 36,34</t>
+          <t>-29,62; 258,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 58,56</t>
+          <t>-2,5; 348,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 27,99</t>
+          <t>-69,24; 101,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 42,77</t>
+          <t>-10,83; 225,7</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-29,78; 192,97</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 221,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-70,73; 35,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-20,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-12,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,45</t>
+          <t>-4,75; 6,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,28</t>
+          <t>-4,7; 11,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,34</t>
+          <t>-10,91; 1,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 0,66</t>
+          <t>-7,49; 4,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,02</t>
+          <t>-6,2; 11,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,61</t>
+          <t>-27,11; -13,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,69</t>
+          <t>-4,83; 3,63</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 8,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; -7,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-41,8%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 28,89</t>
+          <t>-19,59; 34,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 28,35</t>
+          <t>-19,37; 56,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 42,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 4,67</t>
+          <t>-43,9; 9,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 2,33</t>
+          <t>-19,02; 12,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,42; -0,03</t>
+          <t>-16,48; 32,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 9,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 6,59</t>
+          <t>-68,75; -37,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 10,84</t>
+          <t>-15,5; 12,86</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 31,08</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-54,28; -26,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-12,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-9,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 4,69</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 6,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 8,18</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; -1,84</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 0,83</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 1,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 0,91</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-15,99; -7,92</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 1,85</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 1,71</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 2,85</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; -6,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-29,99%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-9,8%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-10,16%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-38,88%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-3,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-35,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,95; 25,46</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; 33,88</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 42,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-45,23; -8,23</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; 2,81</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,97; 4,65</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 3,02</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-49,32; -27,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 7,66</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-15,51; 6,95</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 11,59</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; -24,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
